--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1838" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2042" uniqueCount="335">
   <si>
     <t>Property</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-10T17:43:36+08:00</t>
+    <t>2023-05-11T11:08:24+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1043,6 +1043,30 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/link-type|4.0.1</t>
+  </si>
+  <si>
+    <t>treatment-intent</t>
+  </si>
+  <si>
+    <t>http://polly.example.com/StructureDefinition/treatment-intent</t>
+  </si>
+  <si>
+    <t>TreatmentIntent</t>
+  </si>
+  <si>
+    <t>Treatment Intent</t>
+  </si>
+  <si>
+    <t>The purpose of a medication or procedure.</t>
+  </si>
+  <si>
+    <t>element:MedicationRequest</t>
+  </si>
+  <si>
+    <t>element:MedicationAdministration</t>
+  </si>
+  <si>
+    <t>element:Procedure</t>
   </si>
 </sst>
 </file>
@@ -1176,7 +1200,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:B42"/>
+  <dimension ref="A2:B65"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1500,6 +1524,184 @@
         <v>36</v>
       </c>
     </row>
+    <row r="43">
+      <c r="A43" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B43" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B50" s="2"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="B55" s="2"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B56" s="2"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>334</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1507,7 +1709,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK52"/>
+  <dimension ref="A1:AK57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1516,7 +1718,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="12.13671875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="16.23046875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="38.84375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.84375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
@@ -7037,6 +7239,523 @@
         <v>102</v>
       </c>
     </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="C53" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F53" s="2"/>
+      <c r="G53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="O53" s="2"/>
+      <c r="P53" s="2"/>
+      <c r="Q53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R53" s="2"/>
+      <c r="S53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="C54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F54" s="2"/>
+      <c r="G54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="O54" s="2"/>
+      <c r="P54" s="2"/>
+      <c r="Q54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R54" s="2"/>
+      <c r="S54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="C55" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F55" s="2"/>
+      <c r="G55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="O55" s="2"/>
+      <c r="P55" s="2"/>
+      <c r="Q55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R55" s="2"/>
+      <c r="S55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="C56" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F56" s="2"/>
+      <c r="G56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="P56" s="2"/>
+      <c r="Q56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R56" s="2"/>
+      <c r="S56" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="C57" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F57" s="2"/>
+      <c r="G57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="O57" s="2"/>
+      <c r="P57" s="2"/>
+      <c r="Q57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R57" s="2"/>
+      <c r="S57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>102</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
